--- a/Assets/Excel/Card_Info.xlsx
+++ b/Assets/Excel/Card_Info.xlsx
@@ -101,9 +101,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,7 +391,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,7 +437,7 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Excel/Card_Info.xlsx
+++ b/Assets/Excel/Card_Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,5 +444,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>